--- a/bh3/498293262346850208_2021-03-04_19-12-21.xlsx
+++ b/bh3/498293262346850208_2021-03-04_19-12-21.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:22:07</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.7653587963</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>4219004180</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-14 21:00:01</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44269.87501157408</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -688,10 +700,8 @@
           <t>4230750370</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-07 06:21:49</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44262.26515046296</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -763,10 +773,8 @@
           <t>4230739852</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-07 06:19:10</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44262.26331018518</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -838,10 +846,8 @@
           <t>4220424327</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-05 22:43:17</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44260.94672453704</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -917,10 +923,8 @@
           <t>4220424327</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-05 22:39:35</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44260.94415509259</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -996,10 +1000,8 @@
           <t>4219614249</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:11:03</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44260.84100694444</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1071,10 +1073,8 @@
           <t>4219614249</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:41:46</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44260.77900462963</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1150,10 +1150,8 @@
           <t>4222386179</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-05 15:51:07</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44260.66049768519</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1217,10 +1215,8 @@
           <t>4221935616</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-05 13:31:00</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44260.56319444445</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1296,10 +1292,8 @@
           <t>4219254942</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-05 12:45:07</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44260.53133101852</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1375,10 +1369,8 @@
           <t>4219834475</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:59:08</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44260.49939814815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1446,10 +1438,8 @@
           <t>4219004787</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:50:59</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44260.49373842592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1525,10 +1515,8 @@
           <t>4221353392</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:11:42</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44260.46645833334</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1600,10 +1588,8 @@
           <t>4221115719</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-05 09:49:59</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44260.40971064815</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1682,10 +1668,8 @@
           <t>4218797264</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-05 09:18:41</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44260.38797453704</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1761,10 +1745,8 @@
           <t>4218898811</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-05 09:11:57</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44260.38329861111</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1836,10 +1818,8 @@
           <t>4220993266</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-05 09:02:22</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44260.37664351852</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1915,10 +1895,8 @@
           <t>4220424327</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-05 09:01:03</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44260.37572916667</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1994,10 +1972,8 @@
           <t>4220842526</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-05 08:45:51</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44260.36517361111</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2058,10 +2034,8 @@
           <t>4218898811</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-05 08:18:08</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44260.34592592593</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2129,10 +2103,8 @@
           <t>4219809949</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-05 08:16:44</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44260.3449537037</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2204,10 +2176,8 @@
           <t>4220865765</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-05 08:00:43</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44260.33383101852</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2275,10 +2245,8 @@
           <t>4220842526</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-05 07:45:41</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44260.3233912037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2354,10 +2322,8 @@
           <t>4220826753</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-05 07:33:56</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44260.31523148148</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2429,10 +2395,8 @@
           <t>4219004787</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-05 07:09:32</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44260.29828703704</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2502,10 +2466,8 @@
           <t>4219004787</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-05 07:06:21</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44260.29607638889</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2577,10 +2539,8 @@
           <t>4220424327</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:45:18</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44260.073125</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2648,10 +2608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:25:35</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44260.05943287037</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2719,10 +2677,8 @@
           <t>4220469578</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:22:54</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44260.05756944444</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2790,10 +2746,8 @@
           <t>4220475593</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:22:22</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44260.05719907407</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2861,10 +2815,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:18:30</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44260.05451388889</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2928,10 +2880,8 @@
           <t>4220447825</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:13:22</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44260.05094907407</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2999,10 +2949,8 @@
           <t>4220446339</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:11:42</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44260.04979166666</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3066,10 +3014,8 @@
           <t>4219834475</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:09:51</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44260.04850694445</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3137,10 +3083,8 @@
           <t>4218821403</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:07:26</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44260.0468287037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3216,10 +3160,8 @@
           <t>4219876829</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:06:48</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44260.04638888889</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3287,10 +3229,8 @@
           <t>4218821403</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:06:38</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44260.04627314815</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3366,10 +3306,8 @@
           <t>4220427317</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:06:04</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44260.04587962963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3445,10 +3383,8 @@
           <t>4220435489</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:05:44</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44260.04564814815</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3524,10 +3460,8 @@
           <t>4220426448</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:05:09</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44260.04524305555</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3603,10 +3537,8 @@
           <t>4219273337</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:03:42</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44260.04423611111</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3682,10 +3614,8 @@
           <t>4220423164</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:03:06</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44260.04381944444</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3761,10 +3691,8 @@
           <t>4219050533</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-05 01:01:16</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44260.0425462963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3840,10 +3768,8 @@
           <t>4220367581</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:46:15</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44260.03211805555</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3919,10 +3845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:37:47</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44260.02623842593</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3999,10 +3923,8 @@
           <t>4220311690</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:29:43</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44260.02063657407</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4079,10 +4001,8 @@
           <t>4220316417</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:29:32</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44260.02050925926</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4154,10 +4074,8 @@
           <t>4220267790</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:18:35</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44260.01290509259</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4225,10 +4143,8 @@
           <t>4219232706</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:17:00</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44260.01180555556</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4293,10 +4209,8 @@
           <t>4218821403</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:15:14</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44260.0105787037</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4360,10 +4274,8 @@
           <t>4218821403</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:14:05</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44260.00978009259</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4435,10 +4347,8 @@
           <t>4219600379</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-05 00:10:39</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44260.00739583333</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4510,10 +4420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:55:59</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44259.99721064815</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4577,10 +4485,8 @@
           <t>4218821403</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:47:28</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44259.9912962963</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4656,10 +4562,8 @@
           <t>4220124687</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:46:31</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44259.99063657408</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4731,10 +4635,8 @@
           <t>4220123312</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:45:41</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44259.99005787037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4806,10 +4708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:43:40</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44259.9886574074</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4878,10 +4778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:36:04</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44259.98337962963</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4945,10 +4843,8 @@
           <t>4219600379</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:36:04</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44259.98337962963</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5016,10 +4912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:33:22</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44259.98150462963</v>
       </c>
       <c r="I62" t="n">
         <v>3</v>
@@ -5092,10 +4986,8 @@
           <t>4219291918</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:24:58</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44259.9756712963</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5163,10 +5055,8 @@
           <t>4219600379</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:23:49</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44259.97487268518</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5234,10 +5124,8 @@
           <t>4219004787</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:19:26</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44259.9718287037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5305,10 +5193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:18:34</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44259.97122685185</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5376,10 +5262,8 @@
           <t>4218833771</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:18:29</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44259.97116898148</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5447,10 +5331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:17:51</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44259.97072916666</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5527,10 +5409,8 @@
           <t>4218832812</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:05:44</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44259.96231481482</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5602,10 +5482,8 @@
           <t>4218950152</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:01:12</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44259.95916666667</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5673,10 +5551,8 @@
           <t>4219876829</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:58:00</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44259.95694444444</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5736,10 +5612,8 @@
           <t>4218832812</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:52:29</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44259.95311342592</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5811,10 +5685,8 @@
           <t>4219837957</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:50:57</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44259.95204861111</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5882,10 +5754,8 @@
           <t>4219834475</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:50:47</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44259.95193287037</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5949,10 +5819,8 @@
           <t>4218797264</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:50:33</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44259.95177083334</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6024,10 +5892,8 @@
           <t>4219511790</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:49:06</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44259.95076388889</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6099,10 +5965,8 @@
           <t>4219809949</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:46:34</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44259.94900462963</v>
       </c>
       <c r="I77" t="n">
         <v>11</v>
@@ -6170,10 +6034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:44:43</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44259.94771990741</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6241,10 +6103,8 @@
           <t>4219803526</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:44:22</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44259.94747685185</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6308,10 +6168,8 @@
           <t>4219600379</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:40:21</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44259.9446875</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6375,10 +6233,8 @@
           <t>4218950152</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:38:39</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44259.94350694444</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6442,10 +6298,8 @@
           <t>4219713959</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:27:57</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44259.93607638889</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6509,10 +6363,8 @@
           <t>4219606338</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:27:56</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44259.93606481481</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6584,10 +6436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:26:29</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44259.93505787037</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6655,10 +6505,8 @@
           <t>4219614249</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:22:50</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44259.93252314815</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6730,10 +6578,8 @@
           <t>4219606338</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:21:58</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44259.93192129629</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6797,10 +6643,8 @@
           <t>4218821403</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:21:58</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44259.93192129629</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6872,10 +6716,8 @@
           <t>4219606338</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:21:44</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44259.93175925926</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6939,10 +6781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:21:40</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44259.93171296296</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7014,10 +6854,8 @@
           <t>4218833771</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:20:58</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44259.93122685186</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7081,10 +6919,8 @@
           <t>4218821403</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:20:39</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44259.93100694445</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7160,10 +6996,8 @@
           <t>4219038899</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:18:13</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44259.92931712963</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7239,10 +7073,8 @@
           <t>4218797264</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:17:11</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44259.92859953704</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7302,10 +7134,8 @@
           <t>4219511790</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:16:13</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44259.92792824074</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7365,10 +7195,8 @@
           <t>4219127428</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:15:34</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44259.92747685185</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7440,10 +7268,8 @@
           <t>4218928810</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:14:16</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44259.92657407407</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7516,10 +7342,8 @@
           <t>4219636126</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:12:47</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44259.92554398148</v>
       </c>
       <c r="I97" t="n">
         <v>4</v>
@@ -7587,10 +7411,8 @@
           <t>4218898811</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:12:10</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44259.92511574074</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7662,10 +7484,8 @@
           <t>4219614249</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:12:08</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44259.9250925926</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7741,10 +7561,8 @@
           <t>4219600379</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:10:39</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44259.9240625</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7808,10 +7626,8 @@
           <t>4219621587</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:10:18</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44259.92381944445</v>
       </c>
       <c r="I101" t="n">
         <v>5</v>
@@ -7875,10 +7691,8 @@
           <t>4219614249</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:09:39</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44259.92336805556</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7950,10 +7764,8 @@
           <t>4219291918</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:09:04</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44259.92296296296</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8017,10 +7829,8 @@
           <t>4219606338</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:07:21</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44259.92177083333</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8092,10 +7902,8 @@
           <t>4219600379</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:05:47</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44259.92068287037</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8167,10 +7975,8 @@
           <t>4218821403</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:04:18</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44259.91965277777</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8242,10 +8048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:59:55</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44259.91660879629</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8317,10 +8121,8 @@
           <t>4219562082</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:59:20</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44259.9162037037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8388,10 +8190,8 @@
           <t>4219291918</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:52:18</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44259.91131944444</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8455,10 +8255,8 @@
           <t>4219058861</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:52:13</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44259.91126157407</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8522,10 +8320,8 @@
           <t>4219291918</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:51:17</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44259.91061342593</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8589,10 +8385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:50:29</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44259.91005787037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8661,10 +8455,8 @@
           <t>4219511790</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:49:23</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44259.90929398148</v>
       </c>
       <c r="I113" t="n">
         <v>8</v>
@@ -8732,10 +8524,8 @@
           <t>4218832967</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:42:46</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44259.90469907408</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8807,10 +8597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:42:09</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44259.90427083334</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8879,10 +8667,8 @@
           <t>4218811991</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:40:15</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44259.90295138889</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8946,10 +8732,8 @@
           <t>4219464002</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:39:45</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44259.90260416667</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9021,10 +8805,8 @@
           <t>4219291918</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:38:15</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44259.9015625</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9096,10 +8878,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:35:27</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44259.89961805556</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9171,10 +8951,8 @@
           <t>4219426045</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:31:04</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44259.89657407408</v>
       </c>
       <c r="I120" t="n">
         <v>9</v>
@@ -9250,10 +9028,8 @@
           <t>4219204248</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:30:40</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44259.8962962963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9321,10 +9097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:30:38</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44259.89627314815</v>
       </c>
       <c r="I122" t="n">
         <v>565</v>
@@ -9392,10 +9166,8 @@
           <t>4219000554</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:29:52</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44259.89574074074</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9455,10 +9227,8 @@
           <t>4219415049</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:28:37</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44259.89487268519</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9518,10 +9288,8 @@
           <t>4219001146</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:28:15</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44259.89461805556</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9597,10 +9365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:27:22</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44259.89400462963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9676,10 +9442,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:26:55</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44259.89369212963</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9743,10 +9507,8 @@
           <t>4219396154</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:25:18</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44259.89256944445</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9810,10 +9572,8 @@
           <t>4219273337</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:17:18</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44259.88701388889</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9881,10 +9641,8 @@
           <t>4219273337</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:13:51</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44259.88461805556</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -9961,10 +9719,8 @@
           <t>4219058861</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:09:53</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44259.88186342592</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10028,10 +9784,8 @@
           <t>4219309971</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:09:32</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44259.88162037037</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10099,10 +9853,8 @@
           <t>4219291918</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:04:42</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44259.87826388889</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -10166,10 +9918,8 @@
           <t>4219273337</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:03:19</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44259.87730324074</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10237,10 +9987,8 @@
           <t>4219001146</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:01:24</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44259.87597222222</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10304,10 +10052,8 @@
           <t>4219273337</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:00:54</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44259.875625</v>
       </c>
       <c r="I136" t="n">
         <v>9</v>
@@ -10383,10 +10129,8 @@
           <t>4218867181</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:00:44</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44259.87550925926</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10450,10 +10194,8 @@
           <t>4219046364</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:00:37</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44259.87542824074</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10529,10 +10271,8 @@
           <t>4219232706</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:00:23</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44259.8752662037</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10600,10 +10340,8 @@
           <t>4219204248</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:00:18</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44259.87520833333</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10675,10 +10413,8 @@
           <t>4218797264</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:00:12</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44259.87513888889</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10754,10 +10490,8 @@
           <t>4219254942</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:57:59</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44259.87359953704</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10829,10 +10563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:55:24</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44259.87180555556</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10904,10 +10636,8 @@
           <t>4219232706</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:52:59</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44259.87012731482</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10975,10 +10705,8 @@
           <t>4219207852</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:50:53</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44259.86866898148</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11050,10 +10778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:50:13</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44259.86820601852</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11117,10 +10843,8 @@
           <t>4219207852</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:49:02</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44259.86738425926</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11188,10 +10912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:48:37</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44259.86709490741</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11267,10 +10989,8 @@
           <t>4219204248</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:47:53</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44259.86658564815</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -11338,10 +11058,8 @@
           <t>4219207852</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:46:58</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44259.86594907408</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11413,10 +11131,8 @@
           <t>4219207364</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:46:39</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44259.86572916667</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11476,10 +11192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:44:44</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44259.86439814815</v>
       </c>
       <c r="I152" t="n">
         <v>41</v>
@@ -11547,10 +11261,8 @@
           <t>4218833771</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:43:44</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44259.8637037037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11626,10 +11338,8 @@
           <t>4218945016</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:43:17</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44259.8633912037</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11701,10 +11411,8 @@
           <t>4218867181</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:43:05</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44259.86325231481</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11780,10 +11488,8 @@
           <t>4219179766</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:42:00</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44259.8625</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11847,10 +11553,8 @@
           <t>4219176670</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:41:52</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44259.86240740741</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11927,10 +11631,8 @@
           <t>4219180376</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:40:28</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44259.86143518519</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11994,10 +11696,8 @@
           <t>4219176670</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:40:04</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44259.86115740741</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12073,10 +11773,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:39:21</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44259.86065972222</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12140,10 +11838,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:37:42</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44259.85951388889</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12207,10 +11903,8 @@
           <t>4219162428</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:37:28</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44259.85935185185</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12286,10 +11980,8 @@
           <t>4219155133</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:35:26</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44259.85793981481</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12365,10 +12057,8 @@
           <t>4219140285</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:32:18</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44259.85576388889</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12429,10 +12119,8 @@
           <t>4219127428</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:30:29</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44259.85450231482</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12496,10 +12184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:29:19</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44259.85369212963</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12567,10 +12253,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:28:44</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44259.85328703704</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12635,10 +12319,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:28:39</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44259.85322916666</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12706,10 +12388,8 @@
           <t>4218833771</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:27:20</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44259.85231481482</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12777,10 +12457,8 @@
           <t>4218928810</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:27:03</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44259.85211805555</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12848,10 +12526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:26:51</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44259.85197916667</v>
       </c>
       <c r="I171" t="n">
         <v>7</v>
@@ -12919,10 +12595,8 @@
           <t>4218821403</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:24:43</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44259.85049768518</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12998,10 +12672,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:24:40</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44259.85046296296</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13069,10 +12741,8 @@
           <t>4219073802</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:24:00</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44259.85</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13148,10 +12818,8 @@
           <t>4218824387</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:23:57</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44259.84996527778</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13227,10 +12895,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:23:54</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44259.84993055555</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13290,10 +12956,8 @@
           <t>4219090910</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:22:23</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44259.84887731481</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13369,10 +13033,8 @@
           <t>4219083713</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:21:32</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44259.84828703704</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13448,10 +13110,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:20:13</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44259.84737268519</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13515,10 +13175,8 @@
           <t>4219073802</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:19:37</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44259.84695601852</v>
       </c>
       <c r="I180" t="n">
         <v>12</v>
@@ -13594,10 +13252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:19:33</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44259.84690972222</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13669,10 +13325,8 @@
           <t>4218833771</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:18:59</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44259.8465162037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13748,10 +13402,8 @@
           <t>4218928810</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:18:01</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44259.84584490741</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13827,10 +13479,8 @@
           <t>4219070580</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:17:33</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44259.84552083333</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13898,10 +13548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:17:17</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44259.84533564815</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13965,10 +13613,8 @@
           <t>4219058861</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:16:27</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44259.84475694445</v>
       </c>
       <c r="I186" t="n">
         <v>13</v>
@@ -14044,10 +13690,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:16:11</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44259.84457175926</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14123,10 +13767,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:16:03</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44259.84447916667</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14190,10 +13832,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:15:59</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44259.84443287037</v>
       </c>
       <c r="I189" t="n">
         <v>2</v>
@@ -14265,10 +13905,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:15:47</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44259.84429398148</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14332,10 +13970,8 @@
           <t>4219050533</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:15:31</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44259.84410879629</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14411,10 +14047,8 @@
           <t>4218928810</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:15:30</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44259.84409722222</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14490,10 +14124,8 @@
           <t>4219049764</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:15:19</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44259.84396990741</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14557,10 +14189,8 @@
           <t>4219001146</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:15:12</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44259.84388888889</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14632,10 +14262,8 @@
           <t>4218849356</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:15:02</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44259.84377314815</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14707,10 +14335,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:14:52</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44259.84365740741</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14778,10 +14404,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:14:51</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44259.84364583333</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14857,10 +14481,8 @@
           <t>4218887730</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:13:15</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44259.84253472222</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -14932,10 +14554,8 @@
           <t>4219046364</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:13:07</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44259.84244212963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15011,10 +14631,8 @@
           <t>4219043658</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:13:05</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44259.84241898148</v>
       </c>
       <c r="I200" t="n">
         <v>7</v>
@@ -15086,10 +14704,8 @@
           <t>4218928810</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:12:52</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44259.84226851852</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15157,10 +14773,8 @@
           <t>4219043279</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:12:50</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44259.84224537037</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15236,10 +14850,8 @@
           <t>4219050533</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:12:47</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44259.84221064814</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15318,10 +14930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:12:26</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44259.84196759259</v>
       </c>
       <c r="I204" t="n">
         <v>32</v>
@@ -15389,10 +14999,8 @@
           <t>4219034749</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:12:16</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44259.84185185185</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15460,10 +15068,8 @@
           <t>4218995212</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:11:39</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44259.84142361111</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15531,10 +15137,8 @@
           <t>4219038899</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:11:33</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44259.84135416667</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15602,10 +15206,8 @@
           <t>4219038753</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:11:28</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44259.8412962963</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15669,10 +15271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:11:26</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44259.84127314815</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15745,10 +15345,8 @@
           <t>4219038475</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:11:17</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44259.84116898148</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15816,10 +15414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:10:55</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44259.84091435185</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15895,10 +15491,8 @@
           <t>4219028822</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:09:58</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44259.84025462963</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15966,10 +15560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:09:43</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44259.84008101852</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16037,10 +15629,8 @@
           <t>4219001146</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:09:31</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44259.83994212963</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16104,10 +15694,8 @@
           <t>4218928810</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:09:18</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44259.83979166667</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16183,10 +15771,8 @@
           <t>4218928810</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:09:07</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44259.83966435185</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16262,10 +15848,8 @@
           <t>4219027299</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:08:57</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44259.83954861111</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16337,10 +15921,8 @@
           <t>4219027099</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:08:49</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44259.83945601852</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16408,10 +15990,8 @@
           <t>4219024446</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:08:48</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44259.83944444444</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16483,10 +16063,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:08:42</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44259.839375</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16551,10 +16129,8 @@
           <t>4218973153</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:08:28</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44259.83921296296</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16618,10 +16194,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:08:26</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44259.83918981482</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16681,10 +16255,8 @@
           <t>4219018524</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:08:08</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44259.83898148148</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16752,10 +16324,8 @@
           <t>4218854538</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:07:50</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44259.83877314815</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16823,10 +16393,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:07:18</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44259.83840277778</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16886,10 +16454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:07:11</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44259.83832175926</v>
       </c>
       <c r="I226" t="n">
         <v>2</v>
@@ -16965,10 +16531,8 @@
           <t>4218928810</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:07:09</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44259.83829861111</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17044,10 +16608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:06:36</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44259.83791666666</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17124,10 +16686,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:06:31</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44259.83785879629</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17187,10 +16747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:05:48</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44259.83736111111</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17266,10 +16824,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:05:46</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44259.83733796296</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17334,10 +16890,8 @@
           <t>4219004787</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:05:42</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44259.83729166666</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17409,10 +16963,8 @@
           <t>4219004180</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:05:18</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44259.83701388889</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17480,10 +17032,8 @@
           <t>4218867181</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:03:53</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44259.83603009259</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17551,10 +17101,8 @@
           <t>4219001612</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:03:39</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44259.83586805555</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17628,10 +17176,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:03:22</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44259.8356712963</v>
       </c>
       <c r="I236" t="n">
         <v>28</v>
@@ -17699,10 +17245,8 @@
           <t>4219001146</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:03:21</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44259.83565972222</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17778,10 +17322,8 @@
           <t>4219000554</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:02:59</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44259.83540509259</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17849,10 +17391,8 @@
           <t>4218997276</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:02:42</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44259.83520833333</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17928,10 +17468,8 @@
           <t>4218994262</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:02:32</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44259.83509259259</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17999,10 +17537,8 @@
           <t>4218993555</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:02:07</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44259.83480324074</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18078,10 +17614,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:01:28</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44259.83435185185</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18153,10 +17687,8 @@
           <t>4218995212</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:01:27</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44259.83434027778</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18232,10 +17764,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:01:11</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44259.83415509259</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18307,10 +17837,8 @@
           <t>4218984319</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:00:53</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44259.83394675926</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18386,10 +17914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:00:22</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44259.83358796296</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18449,10 +17975,8 @@
           <t>4218990514</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:00:21</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44259.83357638889</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18517,10 +18041,8 @@
           <t>4218860405</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:59:54</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44259.83326388889</v>
       </c>
       <c r="I248" t="n">
         <v>2</v>
@@ -18589,10 +18111,8 @@
           <t>4218979794</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:59:54</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44259.83326388889</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18668,10 +18188,8 @@
           <t>4218914752</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:59:26</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44259.83293981481</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18739,10 +18257,8 @@
           <t>4218957285</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:59:11</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44259.8327662037</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18818,10 +18334,8 @@
           <t>4218860405</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:58:51</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44259.83253472222</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18885,10 +18399,8 @@
           <t>4218973153</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:58:11</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44259.83207175926</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18960,10 +18472,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:58:08</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44259.83203703703</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19031,10 +18541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:57:38</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44259.83168981481</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19102,10 +18610,8 @@
           <t>4218833771</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:57:11</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44259.83137731482</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19169,10 +18675,8 @@
           <t>4218971305</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:56:57</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44259.83121527778</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19237,10 +18741,8 @@
           <t>4218964926</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:56:52</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44259.83115740741</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -19308,10 +18810,8 @@
           <t>4218964730</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:56:44</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44259.83106481482</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19383,10 +18883,8 @@
           <t>4218849356</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:55:53</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44259.83047453704</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19454,10 +18952,8 @@
           <t>4218854538</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:55:30</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44259.83020833333</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19525,10 +19021,8 @@
           <t>4218958108</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:54:54</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44259.82979166666</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19604,10 +19098,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:54:45</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44259.8296875</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19679,10 +19171,8 @@
           <t>4218854538</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:54:21</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44259.82940972222</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19758,10 +19248,8 @@
           <t>4218957285</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:54:21</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44259.82940972222</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19829,10 +19317,8 @@
           <t>4218887730</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:54:09</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44259.82927083333</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19892,10 +19378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:54:01</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44259.82917824074</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19959,10 +19443,8 @@
           <t>4218914752</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:53:47</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44259.8290162037</v>
       </c>
       <c r="I268" t="n">
         <v>2</v>
@@ -20038,10 +19520,8 @@
           <t>4218867181</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:53:11</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44259.82859953704</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20106,10 +19586,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:52:36</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44259.82819444445</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20181,10 +19659,8 @@
           <t>4218950866</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:52:28</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44259.82810185185</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20256,10 +19732,8 @@
           <t>4218950152</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:52:01</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44259.82778935185</v>
       </c>
       <c r="I272" t="n">
         <v>7</v>
@@ -20327,10 +19801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:51:56</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44259.82773148148</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20398,10 +19870,8 @@
           <t>4218946123</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:51:20</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44259.82731481481</v>
       </c>
       <c r="I274" t="n">
         <v>10</v>
@@ -20477,10 +19947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:51:12</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44259.82722222222</v>
       </c>
       <c r="I275" t="n">
         <v>193</v>
@@ -20556,10 +20024,8 @@
           <t>4218945701</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:51:04</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44259.82712962963</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20631,10 +20097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:50:54</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44259.82701388889</v>
       </c>
       <c r="I277" t="n">
         <v>2</v>
@@ -20706,10 +20170,8 @@
           <t>4218847047</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:50:53</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44259.82700231481</v>
       </c>
       <c r="I278" t="n">
         <v>3</v>
@@ -20785,10 +20247,8 @@
           <t>4218945016</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:50:38</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44259.82682870371</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20856,10 +20316,8 @@
           <t>4218887730</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:50:14</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44259.82655092593</v>
       </c>
       <c r="I280" t="n">
         <v>11</v>
@@ -20931,10 +20389,8 @@
           <t>4218921234</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:50:05</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44259.82644675926</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21010,10 +20466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:49:30</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44259.82604166667</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21089,10 +20543,8 @@
           <t>4218833771</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:49:22</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44259.82594907407</v>
       </c>
       <c r="I283" t="n">
         <v>3</v>
@@ -21156,10 +20608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:48:53</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44259.82561342593</v>
       </c>
       <c r="I284" t="n">
         <v>24</v>
@@ -21235,10 +20685,8 @@
           <t>4218928810</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:48:46</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44259.82553240741</v>
       </c>
       <c r="I285" t="n">
         <v>4</v>
@@ -21314,10 +20762,8 @@
           <t>4218914752</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:48:00</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44259.825</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21385,10 +20831,8 @@
           <t>4218930233</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:47:37</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44259.8247337963</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21464,10 +20908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:47:07</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44259.82438657407</v>
       </c>
       <c r="I288" t="n">
         <v>11</v>
@@ -21539,10 +20981,8 @@
           <t>4218814412</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:47:04</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44259.82435185185</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21606,10 +21046,8 @@
           <t>4218905061</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:46:54</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44259.82423611111</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21681,10 +21119,8 @@
           <t>4218914752</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:46:52</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44259.82421296297</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21752,10 +21188,8 @@
           <t>4218925392</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:46:33</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44259.82399305556</v>
       </c>
       <c r="I292" t="n">
         <v>2</v>
@@ -21819,10 +21253,8 @@
           <t>4218921234</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:46:25</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44259.82390046296</v>
       </c>
       <c r="I293" t="n">
         <v>5</v>
@@ -21894,10 +21326,8 @@
           <t>4218914752</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:46:09</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44259.82371527778</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21965,10 +21395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:45:26</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44259.8232175926</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22036,10 +21464,8 @@
           <t>4218913169</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:45:07</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44259.82299768519</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22099,10 +21525,8 @@
           <t>4218912933</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:44:57</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44259.82288194444</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22178,10 +21602,8 @@
           <t>4218870008</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:44:42</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44259.82270833333</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22249,10 +21671,8 @@
           <t>4218915288</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:44:30</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44259.82256944444</v>
       </c>
       <c r="I299" t="n">
         <v>7</v>
@@ -22316,10 +21736,8 @@
           <t>4218854538</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:44:17</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44259.82241898148</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22387,10 +21805,8 @@
           <t>4218907826</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:44:15</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44259.82239583333</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22458,10 +21874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:43:49</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44259.82209490741</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22533,10 +21947,8 @@
           <t>4218832812</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:43:49</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44259.82209490741</v>
       </c>
       <c r="I303" t="n">
         <v>2</v>
@@ -22608,10 +22020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:43:41</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44259.82200231482</v>
       </c>
       <c r="I304" t="n">
         <v>59</v>
@@ -22675,10 +22085,8 @@
           <t>4218849356</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:43:27</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44259.82184027778</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22750,10 +22158,8 @@
           <t>4218902998</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:43:02</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44259.82155092592</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22821,10 +22227,8 @@
           <t>4218887730</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:42:50</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44259.82141203704</v>
       </c>
       <c r="I307" t="n">
         <v>13</v>
@@ -22896,10 +22300,8 @@
           <t>4218854538</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:42:37</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44259.82126157408</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22967,10 +22369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:42:28</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44259.82115740741</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23038,10 +22438,8 @@
           <t>4218905061</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:42:28</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44259.82115740741</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23113,10 +22511,8 @@
           <t>4218898811</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:42:12</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44259.82097222222</v>
       </c>
       <c r="I311" t="n">
         <v>12</v>
@@ -23184,10 +22580,8 @@
           <t>4218894602</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:42:11</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44259.82096064815</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23263,10 +22657,8 @@
           <t>4218867181</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:41:49</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44259.82070601852</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23334,10 +22726,8 @@
           <t>4218900734</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:41:34</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44259.82053240741</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23409,10 +22799,8 @@
           <t>4218897841</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:41:34</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44259.82053240741</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23488,10 +22876,8 @@
           <t>4218897338</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:41:14</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44259.82030092592</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23555,10 +22941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:41:05</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44259.82019675926</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23637,10 +23021,8 @@
           <t>4218896422</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:40:38</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44259.81988425926</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23716,10 +23098,8 @@
           <t>4218895891</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:40:18</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44259.81965277778</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23783,10 +23163,8 @@
           <t>4218879912</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:40:14</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44259.81960648148</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23862,10 +23240,8 @@
           <t>4218888560</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:40:13</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44259.81959490741</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23937,10 +23313,8 @@
           <t>4218833771</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:40:10</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44259.81956018518</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24008,10 +23382,8 @@
           <t>4218888403</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:40:07</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44259.81952546296</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24087,10 +23459,8 @@
           <t>4218888337</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:40:04</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44259.81949074074</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24158,10 +23528,8 @@
           <t>4218895306</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:39:56</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44259.81939814815</v>
       </c>
       <c r="I325" t="n">
         <v>6</v>
@@ -24237,10 +23605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:39:46</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44259.81928240741</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24312,10 +23678,8 @@
           <t>4218887730</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:39:40</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44259.81921296296</v>
       </c>
       <c r="I327" t="n">
         <v>2</v>
@@ -24391,10 +23755,8 @@
           <t>4218879912</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:39:12</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44259.81888888889</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24466,10 +23828,8 @@
           <t>4218886848</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:39:07</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44259.81883101852</v>
       </c>
       <c r="I329" t="n">
         <v>3</v>
@@ -24545,10 +23905,8 @@
           <t>4218886838</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:39:06</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44259.81881944444</v>
       </c>
       <c r="I330" t="n">
         <v>4</v>
@@ -24617,10 +23975,8 @@
           <t>4218883910</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:39:00</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44259.81875</v>
       </c>
       <c r="I331" t="n">
         <v>2</v>
@@ -24684,10 +24040,8 @@
           <t>4218886574</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:38:56</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44259.81870370371</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24759,10 +24113,8 @@
           <t>4218885684</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:38:22</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44259.81831018518</v>
       </c>
       <c r="I333" t="n">
         <v>2</v>
@@ -24830,10 +24182,8 @@
           <t>4218882900</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:38:20</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44259.81828703704</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24909,10 +24259,8 @@
           <t>4218878364</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:38:14</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44259.81821759259</v>
       </c>
       <c r="I335" t="n">
         <v>10</v>
@@ -24988,10 +24336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:38:04</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44259.81810185185</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -25063,10 +24409,8 @@
           <t>4218885237</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:38:04</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44259.81810185185</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25135,10 +24479,8 @@
           <t>4218885159</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:38:01</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44259.81806712963</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25202,10 +24544,8 @@
           <t>4218877942</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:37:58</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44259.81803240741</v>
       </c>
       <c r="I339" t="n">
         <v>2</v>
@@ -25273,10 +24613,8 @@
           <t>4218877727</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:37:49</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44259.81792824074</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25348,10 +24686,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:37:43</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44259.8178587963</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25419,10 +24755,8 @@
           <t>4218877347</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:37:35</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44259.81776620371</v>
       </c>
       <c r="I342" t="n">
         <v>4</v>
@@ -25498,10 +24832,8 @@
           <t>4218852919</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:37:18</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44259.81756944444</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25569,10 +24901,8 @@
           <t>4218864503</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:36:37</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44259.8170949074</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25648,10 +24978,8 @@
           <t>4218872555</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:36:24</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44259.81694444444</v>
       </c>
       <c r="I345" t="n">
         <v>3</v>
@@ -25723,10 +25051,8 @@
           <t>4218871917</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:35:59</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44259.8166550926</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25790,10 +25116,8 @@
           <t>4218849356</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:35:57</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44259.81663194444</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25869,10 +25193,8 @@
           <t>4218869296</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:35:55</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44259.8166087963</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25940,10 +25262,8 @@
           <t>4218864503</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:35:47</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44259.8165162037</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26019,10 +25339,8 @@
           <t>4218864361</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:35:42</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44259.81645833333</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26099,10 +25417,8 @@
           <t>4218833771</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:35:35</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44259.81637731481</v>
       </c>
       <c r="I351" t="n">
         <v>8</v>
@@ -26183,10 +25499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:35:24</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44259.81625</v>
       </c>
       <c r="I352" t="n">
         <v>100</v>
@@ -26258,10 +25572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:34:58</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44259.81594907407</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26337,10 +25649,8 @@
           <t>4218870008</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:34:45</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44259.81579861111</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26408,10 +25718,8 @@
           <t>4218867181</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:34:32</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44259.81564814815</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26475,10 +25783,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:34:23</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44259.81554398148</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26546,10 +25852,8 @@
           <t>4218858061</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:34:13</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44259.81542824074</v>
       </c>
       <c r="I357" t="n">
         <v>2</v>
@@ -26617,10 +25921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:34:07</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44259.8153587963</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26688,10 +25990,8 @@
           <t>4218861769</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:34:02</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44259.81530092593</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26759,10 +26059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:33:53</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44259.81519675926</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26830,10 +26128,8 @@
           <t>4218858061</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:33:29</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44259.81491898148</v>
       </c>
       <c r="I361" t="n">
         <v>31</v>
@@ -26901,10 +26197,8 @@
           <t>4218865531</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:33:27</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44259.81489583333</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26980,10 +26274,8 @@
           <t>4218857832</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:33:21</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44259.81482638889</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27060,10 +26352,8 @@
           <t>4218848394</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:33:15</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44259.81475694444</v>
       </c>
       <c r="I364" t="n">
         <v>2</v>
@@ -27131,10 +26421,8 @@
           <t>4218860405</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:33:11</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44259.81471064815</v>
       </c>
       <c r="I365" t="n">
         <v>9</v>
@@ -27194,10 +26482,8 @@
           <t>4218854608</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:32:49</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44259.81445601852</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27261,10 +26547,8 @@
           <t>4218856949</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:32:47</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44259.81443287037</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27340,10 +26624,8 @@
           <t>4218854538</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:32:46</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44259.81442129629</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27419,10 +26701,8 @@
           <t>4218833771</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:32:37</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44259.81431712963</v>
       </c>
       <c r="I369" t="n">
         <v>8</v>
@@ -27494,10 +26774,8 @@
           <t>4218856662</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:32:35</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44259.81429398148</v>
       </c>
       <c r="I370" t="n">
         <v>4</v>
@@ -27565,10 +26843,8 @@
           <t>4218849356</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:32:30</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44259.81423611111</v>
       </c>
       <c r="I371" t="n">
         <v>5</v>
@@ -27640,10 +26916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:32:26</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44259.81418981482</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27711,10 +26985,8 @@
           <t>4218848860</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:32:10</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44259.81400462963</v>
       </c>
       <c r="I373" t="n">
         <v>3</v>
@@ -27778,10 +27050,8 @@
           <t>4218848838</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:32:09</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44259.81399305556</v>
       </c>
       <c r="I374" t="n">
         <v>6</v>
@@ -27845,10 +27115,8 @@
           <t>4218848394</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:31:53</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44259.81380787037</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27916,10 +27184,8 @@
           <t>4218852919</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:31:42</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44259.81368055556</v>
       </c>
       <c r="I376" t="n">
         <v>6</v>
@@ -27983,10 +27249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:31:30</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44259.81354166667</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28054,10 +27318,8 @@
           <t>4218847047</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:31:00</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44259.81319444445</v>
       </c>
       <c r="I378" t="n">
         <v>35</v>
@@ -28125,10 +27387,8 @@
           <t>4218843673</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:30:43</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44259.81299768519</v>
       </c>
       <c r="I379" t="n">
         <v>2</v>
@@ -28196,10 +27456,8 @@
           <t>4218832812</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:30:41</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44259.81297453704</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28267,10 +27525,8 @@
           <t>4218797264</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:30:03</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44259.81253472222</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28334,10 +27590,8 @@
           <t>4218842078</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:29:42</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44259.81229166667</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28405,10 +27659,8 @@
           <t>4218797264</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:29:38</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44259.81224537037</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28480,10 +27732,8 @@
           <t>4218833771</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:28:57</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44259.81177083333</v>
       </c>
       <c r="I384" t="n">
         <v>6</v>
@@ -28551,10 +27801,8 @@
           <t>4218833689</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:28:54</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44259.81173611111</v>
       </c>
       <c r="I385" t="n">
         <v>3</v>
@@ -28626,10 +27874,8 @@
           <t>4218838634</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:28:49</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44259.81167824074</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28693,10 +27939,8 @@
           <t>4218832967</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:28:26</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44259.81141203704</v>
       </c>
       <c r="I387" t="n">
         <v>19</v>
@@ -28772,10 +28016,8 @@
           <t>4218832812</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:28:19</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44259.81133101852</v>
       </c>
       <c r="I388" t="n">
         <v>5</v>
@@ -28847,10 +28089,8 @@
           <t>4218829089</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:27:48</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44259.81097222222</v>
       </c>
       <c r="I389" t="n">
         <v>4</v>
@@ -28914,10 +28154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:27:34</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44259.81081018518</v>
       </c>
       <c r="I390" t="n">
         <v>22</v>
@@ -28993,10 +28231,8 @@
           <t>4218806973</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:27:16</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44259.81060185185</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29068,10 +28304,8 @@
           <t>4218830892</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:27:04</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44259.81046296296</v>
       </c>
       <c r="I392" t="n">
         <v>4</v>
@@ -29143,10 +28377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:27:00</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44259.81041666667</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29222,10 +28454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:26:33</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44259.81010416667</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29301,10 +28531,8 @@
           <t>4218826911</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:26:29</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44259.81005787037</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29380,10 +28608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:26:13</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44259.80987268518</v>
       </c>
       <c r="I396" t="n">
         <v>19</v>
@@ -29443,10 +28669,8 @@
           <t>4218824387</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:26:04</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44259.80976851852</v>
       </c>
       <c r="I397" t="n">
         <v>16</v>
@@ -29514,10 +28738,8 @@
           <t>4218818669</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:25:35</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44259.80943287037</v>
       </c>
       <c r="I398" t="n">
         <v>53</v>
@@ -29589,10 +28811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:25:26</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44259.8093287037</v>
       </c>
       <c r="I399" t="n">
         <v>52</v>
@@ -29664,10 +28884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:25:14</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44259.80918981481</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29735,10 +28953,8 @@
           <t>4218818147</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:25:14</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44259.80918981481</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29814,10 +29030,8 @@
           <t>4218797264</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:25:03</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44259.8090625</v>
       </c>
       <c r="I402" t="n">
         <v>22</v>
@@ -29894,10 +29108,8 @@
           <t>4218814412</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:24:55</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44259.8089699074</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -29973,10 +29185,8 @@
           <t>4218814155</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:24:44</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44259.8088425926</v>
       </c>
       <c r="I404" t="n">
         <v>34</v>
@@ -30043,10 +29253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:24:40</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44259.8087962963</v>
       </c>
       <c r="I405" t="n">
         <v>496</v>
@@ -30114,10 +29322,8 @@
           <t>4218821964</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:24:32</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44259.8087037037</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30189,10 +29395,8 @@
           <t>4218821868</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:24:29</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44259.80866898148</v>
       </c>
       <c r="I407" t="n">
         <v>3</v>
@@ -30260,10 +29464,8 @@
           <t>4218821403</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:24:11</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44259.80846064815</v>
       </c>
       <c r="I408" t="n">
         <v>98</v>
@@ -30339,10 +29541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:23:56</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44259.80828703703</v>
       </c>
       <c r="I409" t="n">
         <v>6</v>
@@ -30406,10 +29606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:23:46</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44259.8081712963</v>
       </c>
       <c r="I410" t="n">
         <v>12</v>
@@ -30473,10 +29671,8 @@
           <t>4218811991</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:23:25</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44259.80792824074</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30544,10 +29740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:23:19</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44259.8078587963</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30623,10 +29817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:23:17</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44259.80783564815</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30694,10 +29886,8 @@
           <t>4218811722</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:23:13</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44259.80778935185</v>
       </c>
       <c r="I414" t="n">
         <v>53</v>
@@ -30773,10 +29963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:22:53</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44259.80755787037</v>
       </c>
       <c r="I415" t="n">
         <v>26</v>
@@ -30844,10 +30032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:22:51</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44259.80753472223</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30915,10 +30101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:22:28</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44259.80726851852</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30994,10 +30178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:22:14</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44259.80710648148</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31069,10 +30251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:21:46</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44259.80678240741</v>
       </c>
       <c r="I419" t="n">
         <v>36</v>
@@ -31148,10 +30328,8 @@
           <t>4218806973</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:21:22</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44259.80650462963</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31223,10 +30401,8 @@
           <t>4218806804</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:21:16</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44259.80643518519</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31298,10 +30474,8 @@
           <t>4218806460</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:21:03</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44259.80628472222</v>
       </c>
       <c r="I422" t="n">
         <v>3</v>
@@ -31365,10 +30539,8 @@
           <t>4218797864</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:20:49</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44259.80612268519</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31440,10 +30612,8 @@
           <t>4218801433</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:20:49</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44259.80612268519</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31511,10 +30681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:20:42</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44259.80604166666</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31578,10 +30746,8 @@
           <t>4218797264</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:20:26</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44259.80585648148</v>
       </c>
       <c r="I426" t="n">
         <v>19</v>
@@ -31649,10 +30815,8 @@
           <t>4218797165</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:20:22</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44259.80581018519</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31728,10 +30892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:19:54</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44259.80548611111</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31799,10 +30961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:19:52</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44259.80546296296</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31874,10 +31034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:19:10</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44259.80497685185</v>
       </c>
       <c r="I430" t="n">
         <v>54</v>
@@ -31950,10 +31108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:19:01</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44259.80487268518</v>
       </c>
       <c r="I431" t="n">
         <v>72</v>
@@ -32029,10 +31185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:18:47</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44259.80471064815</v>
       </c>
       <c r="I432" t="n">
         <v>5</v>
@@ -32108,10 +31262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:18:32</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44259.80453703704</v>
       </c>
       <c r="I433" t="n">
         <v>844</v>
@@ -32180,10 +31332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:18:05</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44259.80422453704</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32259,10 +31409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:18:00</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44259.80416666667</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32330,10 +31478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:17:28</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44259.8037962963</v>
       </c>
       <c r="I436" t="n">
         <v>3</v>
@@ -32406,10 +31552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:17:22</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44259.80372685185</v>
       </c>
       <c r="I437" t="n">
         <v>12</v>
@@ -32481,10 +31625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:17:06</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44259.80354166667</v>
       </c>
       <c r="I438" t="n">
         <v>9</v>
@@ -32552,10 +31694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:17:04</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44259.80351851852</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32631,10 +31771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:16:55</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44259.80341435185</v>
       </c>
       <c r="I440" t="n">
         <v>273</v>
@@ -32694,10 +31832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:16:50</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44259.80335648148</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32773,10 +31909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:16:44</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44259.80328703704</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32840,10 +31974,8 @@
           <t>4218781192</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:16:40</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44259.80324074074</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32919,10 +32051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:15:37</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44259.80251157407</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32994,10 +32124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:15:24</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44259.80236111111</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33073,10 +32201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:15:14</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44259.80224537037</v>
       </c>
       <c r="I446" t="n">
         <v>3</v>
@@ -33152,10 +32278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:15:07</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44259.80216435185</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33227,10 +32351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:15:02</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44259.80210648148</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33306,10 +32428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:14:30</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44259.80173611111</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33369,10 +32489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:14:08</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44259.80148148148</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33448,10 +32566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:13:47</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44259.80123842593</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33515,10 +32631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:13:36</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44259.80111111111</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33590,10 +32704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:13:35</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44259.80109953704</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33670,10 +32782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:13:34</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44259.80108796297</v>
       </c>
       <c r="I454" t="n">
         <v>452</v>
@@ -33745,10 +32855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:13:30</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44259.80104166667</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33816,10 +32924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:13:15</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44259.80086805556</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33887,10 +32993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:13:14</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44259.80085648148</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -33962,10 +33066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:13:03</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44259.80072916667</v>
       </c>
       <c r="I458" t="n">
         <v>207</v>
@@ -34033,10 +33135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:12:57</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44259.80065972222</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34112,10 +33212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:12:54</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44259.800625</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34187,10 +33285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:12:42</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44259.80048611111</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34250,10 +33346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:12:35</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44259.8004050926</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
